--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -546,10 +546,10 @@
         <v>0.280937</v>
       </c>
       <c r="I2">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J2">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N2">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O2">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P2">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q2">
-        <v>0.3695489935767778</v>
+        <v>0.4517550304643334</v>
       </c>
       <c r="R2">
-        <v>3.325940942191</v>
+        <v>4.065795274179</v>
       </c>
       <c r="S2">
-        <v>0.0001119738241420316</v>
+        <v>0.0001925322926943878</v>
       </c>
       <c r="T2">
-        <v>0.0001119738241420316</v>
+        <v>0.0001925322926943878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.280937</v>
       </c>
       <c r="I3">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J3">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N3">
         <v>2.165195</v>
       </c>
       <c r="O3">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P3">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q3">
-        <v>0.06758704307944444</v>
+        <v>0.06758704307944445</v>
       </c>
       <c r="R3">
-        <v>0.6082833877149999</v>
+        <v>0.608283387715</v>
       </c>
       <c r="S3">
-        <v>2.047896167382012E-05</v>
+        <v>2.880474479087658E-05</v>
       </c>
       <c r="T3">
-        <v>2.047896167382011E-05</v>
+        <v>2.880474479087657E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.280937</v>
       </c>
       <c r="I4">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J4">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N4">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O4">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P4">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q4">
-        <v>0.2183038439024444</v>
+        <v>0.4418827482082222</v>
       </c>
       <c r="R4">
-        <v>1.964734595122</v>
+        <v>3.976944733874</v>
       </c>
       <c r="S4">
-        <v>6.614634771446962E-05</v>
+        <v>0.0001883248505881172</v>
       </c>
       <c r="T4">
-        <v>6.61463477144696E-05</v>
+        <v>0.0001883248505881172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.280937</v>
       </c>
       <c r="I5">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J5">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N5">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O5">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P5">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q5">
-        <v>3.078729711090889</v>
+        <v>2.619982845431445</v>
       </c>
       <c r="R5">
-        <v>27.708567399818</v>
+        <v>23.579845608883</v>
       </c>
       <c r="S5">
-        <v>0.0009328590937669979</v>
+        <v>0.001116603623721479</v>
       </c>
       <c r="T5">
-        <v>0.0009328590937669977</v>
+        <v>0.001116603623721479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.280937</v>
       </c>
       <c r="I6">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J6">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N6">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O6">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P6">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q6">
-        <v>0.6535884745134445</v>
+        <v>0.2408244405573333</v>
       </c>
       <c r="R6">
-        <v>5.882296270621</v>
+        <v>2.167419965016</v>
       </c>
       <c r="S6">
-        <v>0.0001980381550984315</v>
+        <v>0.0001026363372859163</v>
       </c>
       <c r="T6">
-        <v>0.0001980381550984314</v>
+        <v>0.0001026363372859162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>30.802262</v>
       </c>
       <c r="I7">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J7">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N7">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O7">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P7">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q7">
-        <v>40.51778484851845</v>
+        <v>49.53095109643933</v>
       </c>
       <c r="R7">
-        <v>364.660063636666</v>
+        <v>445.778559867954</v>
       </c>
       <c r="S7">
-        <v>0.01227694133690039</v>
+        <v>0.02110946626123728</v>
       </c>
       <c r="T7">
-        <v>0.01227694133690038</v>
+        <v>0.02110946626123728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>30.802262</v>
       </c>
       <c r="I8">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J8">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N8">
         <v>2.165195</v>
       </c>
       <c r="O8">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P8">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q8">
-        <v>7.41032263012111</v>
+        <v>7.410322630121112</v>
       </c>
       <c r="R8">
-        <v>66.69290367108999</v>
+        <v>66.69290367109001</v>
       </c>
       <c r="S8">
-        <v>0.002245337363768267</v>
+        <v>0.003158185984372709</v>
       </c>
       <c r="T8">
-        <v>0.002245337363768267</v>
+        <v>0.003158185984372708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>30.802262</v>
       </c>
       <c r="I9">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J9">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N9">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O9">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P9">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q9">
-        <v>23.93508934561911</v>
+        <v>48.44854249739156</v>
       </c>
       <c r="R9">
-        <v>215.415804110572</v>
+        <v>436.036882476524</v>
       </c>
       <c r="S9">
-        <v>0.007252363101493196</v>
+        <v>0.02064815737665754</v>
       </c>
       <c r="T9">
-        <v>0.007252363101493194</v>
+        <v>0.02064815737665754</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>30.802262</v>
       </c>
       <c r="I10">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J10">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N10">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O10">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P10">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q10">
-        <v>337.5555344728742</v>
+        <v>287.2579903696731</v>
       </c>
       <c r="R10">
-        <v>3037.999810255868</v>
+        <v>2585.321913327058</v>
       </c>
       <c r="S10">
-        <v>0.1022797645567997</v>
+        <v>0.1224257302100415</v>
       </c>
       <c r="T10">
-        <v>0.1022797645567997</v>
+        <v>0.1224257302100414</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>30.802262</v>
       </c>
       <c r="I11">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J11">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N11">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O11">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P11">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q11">
-        <v>71.66020649520512</v>
+        <v>26.40427396195733</v>
       </c>
       <c r="R11">
-        <v>644.941858456846</v>
+        <v>237.638465657616</v>
       </c>
       <c r="S11">
-        <v>0.02171313546929924</v>
+        <v>0.01125316833240606</v>
       </c>
       <c r="T11">
-        <v>0.02171313546929923</v>
+        <v>0.01125316833240606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H12">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I12">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J12">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N12">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O12">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P12">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q12">
-        <v>120.0036170472992</v>
+        <v>114.2122158062143</v>
       </c>
       <c r="R12">
-        <v>1080.032553425693</v>
+        <v>1027.909942255929</v>
       </c>
       <c r="S12">
-        <v>0.03636125153962909</v>
+        <v>0.04867580498279087</v>
       </c>
       <c r="T12">
-        <v>0.03636125153962909</v>
+        <v>0.04867580498279087</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H13">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I13">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J13">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N13">
         <v>2.165195</v>
       </c>
       <c r="O13">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P13">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q13">
-        <v>21.94753544466055</v>
+        <v>17.08728277349611</v>
       </c>
       <c r="R13">
-        <v>197.5278190019449</v>
+        <v>153.785544961465</v>
       </c>
       <c r="S13">
-        <v>0.006650131692811238</v>
+        <v>0.007282384271221219</v>
       </c>
       <c r="T13">
-        <v>0.006650131692811236</v>
+        <v>0.007282384271221218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H14">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I14">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J14">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N14">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O14">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P14">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q14">
-        <v>70.88979090448954</v>
+        <v>111.7163161360415</v>
       </c>
       <c r="R14">
-        <v>638.0081181404059</v>
+        <v>1005.446845224374</v>
       </c>
       <c r="S14">
-        <v>0.02147969854653533</v>
+        <v>0.04761208404239623</v>
       </c>
       <c r="T14">
-        <v>0.02147969854653532</v>
+        <v>0.04761208404239622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H15">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I15">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J15">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N15">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O15">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P15">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q15">
-        <v>999.7556688383569</v>
+        <v>662.3812154198481</v>
       </c>
       <c r="R15">
-        <v>8997.801019545213</v>
+        <v>5961.430938778633</v>
       </c>
       <c r="S15">
-        <v>0.3029272637546699</v>
+        <v>0.2822985145542218</v>
       </c>
       <c r="T15">
-        <v>0.3029272637546699</v>
+        <v>0.2822985145542218</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H16">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I16">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J16">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N16">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O16">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P16">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q16">
-        <v>212.2397364498425</v>
+        <v>60.88497331855732</v>
       </c>
       <c r="R16">
-        <v>1910.157628048583</v>
+        <v>547.9647598670159</v>
       </c>
       <c r="S16">
-        <v>0.06430891529474107</v>
+        <v>0.02594840724099909</v>
       </c>
       <c r="T16">
-        <v>0.06430891529474105</v>
+        <v>0.02594840724099908</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H17">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I17">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J17">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N17">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O17">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P17">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q17">
-        <v>1.158173704362889</v>
+        <v>1.599111534135333</v>
       </c>
       <c r="R17">
-        <v>10.423563339266</v>
+        <v>14.392003807218</v>
       </c>
       <c r="S17">
-        <v>0.0003509281338938676</v>
+        <v>0.0006815211545617157</v>
       </c>
       <c r="T17">
-        <v>0.0003509281338938675</v>
+        <v>0.0006815211545617156</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H18">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I18">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J18">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N18">
         <v>2.165195</v>
       </c>
       <c r="O18">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P18">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q18">
-        <v>0.2118191022322222</v>
+        <v>0.2392429809477778</v>
       </c>
       <c r="R18">
-        <v>1.90637192009</v>
+        <v>2.15318682853</v>
       </c>
       <c r="S18">
-        <v>6.418146258148626E-05</v>
+        <v>0.0001019623391588377</v>
       </c>
       <c r="T18">
-        <v>6.418146258148625E-05</v>
+        <v>0.0001019623391588376</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H19">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I19">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J19">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N19">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O19">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P19">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q19">
-        <v>0.6841684755302223</v>
+        <v>1.564165868100889</v>
       </c>
       <c r="R19">
-        <v>6.157516279772</v>
+        <v>14.077492812908</v>
       </c>
       <c r="S19">
-        <v>0.0002073039350508383</v>
+        <v>0.0006666277527230499</v>
       </c>
       <c r="T19">
-        <v>0.0002073039350508382</v>
+        <v>0.0006666277527230498</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H20">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I20">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J20">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N20">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O20">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P20">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q20">
-        <v>9.648798552296446</v>
+        <v>9.274151929331778</v>
       </c>
       <c r="R20">
-        <v>86.83918697066801</v>
+        <v>83.467367363986</v>
       </c>
       <c r="S20">
-        <v>0.002923598470177579</v>
+        <v>0.003952526509588698</v>
       </c>
       <c r="T20">
-        <v>0.002923598470177579</v>
+        <v>0.003952526509588696</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H21">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I21">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J21">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N21">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O21">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P21">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q21">
-        <v>2.048358939716223</v>
+        <v>0.8524645319413333</v>
       </c>
       <c r="R21">
-        <v>18.435230457446</v>
+        <v>7.672180787472</v>
       </c>
       <c r="S21">
-        <v>0.000620655414253997</v>
+        <v>0.0003633096251448851</v>
       </c>
       <c r="T21">
-        <v>0.0006206554142539968</v>
+        <v>0.0003633096251448849</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H22">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I22">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J22">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N22">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O22">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P22">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q22">
-        <v>115.9125144675322</v>
+        <v>111.5431374121757</v>
       </c>
       <c r="R22">
-        <v>1043.21263020779</v>
+        <v>1003.888236709581</v>
       </c>
       <c r="S22">
-        <v>0.03512164215419948</v>
+        <v>0.04753827745585415</v>
       </c>
       <c r="T22">
-        <v>0.03512164215419947</v>
+        <v>0.04753827745585414</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H23">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I23">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J23">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N23">
         <v>2.165195</v>
       </c>
       <c r="O23">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P23">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q23">
-        <v>21.19931117370555</v>
+        <v>16.68796211465389</v>
       </c>
       <c r="R23">
-        <v>190.79380056335</v>
+        <v>150.191659031885</v>
       </c>
       <c r="S23">
-        <v>0.006423418768703901</v>
+        <v>0.007112198845974038</v>
       </c>
       <c r="T23">
-        <v>0.006423418768703899</v>
+        <v>0.007112198845974036</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H24">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I24">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J24">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N24">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O24">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P24">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q24">
-        <v>68.47305202957556</v>
+        <v>109.1055655822984</v>
       </c>
       <c r="R24">
-        <v>616.2574682661799</v>
+        <v>981.9500902406861</v>
       </c>
       <c r="S24">
-        <v>0.02074742353434372</v>
+        <v>0.04649941510487792</v>
       </c>
       <c r="T24">
-        <v>0.02074742353434371</v>
+        <v>0.04649941510487791</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H25">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I25">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J25">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N25">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O25">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P25">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q25">
-        <v>965.672504542491</v>
+        <v>646.9017207071819</v>
       </c>
       <c r="R25">
-        <v>8691.05254088242</v>
+        <v>5822.115486364638</v>
       </c>
       <c r="S25">
-        <v>0.2926000207871516</v>
+        <v>0.2757013492637391</v>
       </c>
       <c r="T25">
-        <v>0.2926000207871515</v>
+        <v>0.275701349263739</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H26">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I26">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J26">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N26">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O26">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P26">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q26">
-        <v>205.0041667671656</v>
+        <v>59.46212405800267</v>
       </c>
       <c r="R26">
-        <v>1845.03750090449</v>
+        <v>535.159116522024</v>
       </c>
       <c r="S26">
-        <v>0.06211652830060044</v>
+        <v>0.02534200684295254</v>
       </c>
       <c r="T26">
-        <v>0.0621165283006004</v>
+        <v>0.02534200684295253</v>
       </c>
     </row>
   </sheetData>
